--- a/settings.xlsx
+++ b/settings.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>host</t>
   </si>
@@ -38,30 +38,6 @@
     <t>local_destination</t>
   </si>
   <si>
-    <t>192.168.1.3</t>
-  </si>
-  <si>
-    <t>mycstro</t>
-  </si>
-  <si>
-    <t>myc2367</t>
-  </si>
-  <si>
-    <t>test.txt</t>
-  </si>
-  <si>
-    <t>/home/mycstro</t>
-  </si>
-  <si>
-    <t>test1.txt</t>
-  </si>
-  <si>
-    <t>test2.txt</t>
-  </si>
-  <si>
-    <t>test3.txt</t>
-  </si>
-  <si>
     <t>source_host</t>
   </si>
   <si>
@@ -102,9 +78,6 @@
   </si>
   <si>
     <t>int_time</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
 </sst>
 </file>
@@ -140,11 +113,10 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,99 +659,18 @@
       <c r="H1" s="1"/>
     </row>
     <row ht="14.25" r="2">
-      <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0">
-        <v>2222</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
     <row ht="14.25" r="3">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0">
-        <v>2222</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="0"/>
+      <c r="E3" s="0"/>
     </row>
     <row ht="14.25" r="4">
-      <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0">
-        <v>2222</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="0"/>
+      <c r="E4" s="0"/>
     </row>
     <row ht="14.25" r="5">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0">
-        <v>2222</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="0"/>
+      <c r="E5" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
@@ -812,16 +703,16 @@
   <sheetData>
     <row ht="14.25" r="1">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -830,162 +721,32 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row ht="14.25" r="2">
-      <c r="A2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0">
-        <v>2222</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="0">
-        <v>2222</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
+    <row ht="14.25" r="2"/>
     <row ht="14.25" r="3">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0">
-        <v>2222</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="0">
-        <v>2222</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>11</v>
-      </c>
+      <c r="E3" s="0"/>
     </row>
     <row ht="14.25" r="4">
-      <c r="A4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0">
-        <v>2222</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="0">
-        <v>2222</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>11</v>
-      </c>
+      <c r="E4" s="0"/>
     </row>
     <row ht="14.25" r="5">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="0">
-        <v>2222</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="0">
-        <v>2222</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>11</v>
-      </c>
+      <c r="E5" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
@@ -1001,7 +762,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" customWidth="1" min="1" max="1" width="14.7109375"/>
     <col bestFit="1" min="4" max="4" width="10.421875"/>
@@ -1009,38 +770,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0" t="b">
-        <v>0</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="0" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0">
-        <v>5</v>
-      </c>
-    </row>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2"/>
   </sheetData>
   <printOptions headings="0" gridLines="0" gridLinesSet="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.5" footer="0.5"/>
